--- a/data/trans_bre/P07_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P07_R-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.395681380412347</v>
+        <v>8.110343711892973</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.757345650299909</v>
+        <v>4.429879171586135</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.12830703522977</v>
+        <v>6.170153128429017</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2459657961165522</v>
+        <v>0.04662591417028301</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4413209131726298</v>
+        <v>0.4031320070022794</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2262423637917887</v>
+        <v>0.2206049935879278</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3164968957018467</v>
+        <v>0.3264899704675131</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.01034671503397988</v>
+        <v>0.0001469393399427636</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.40682785759541</v>
+        <v>17.18185613072096</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.41855703673614</v>
+        <v>13.35743413405839</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.11621707247497</v>
+        <v>15.25028674952944</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.434005442584173</v>
+        <v>8.197859879013063</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.135504891347291</v>
+        <v>1.118615315388855</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9197646845887045</v>
+        <v>0.8212636752443162</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.034547033736304</v>
+        <v>1.050702575962957</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4169634904073347</v>
+        <v>0.4045678587587649</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>12.21881181794309</v>
+        <v>12.06906554087014</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.787774907014792</v>
+        <v>6.116911268155376</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.801597516821652</v>
+        <v>5.198403773183088</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.039960475252241</v>
+        <v>6.647418603242955</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6964664907149382</v>
+        <v>0.705654323895737</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.283196241599233</v>
+        <v>0.3122640107461044</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2761418585883073</v>
+        <v>0.3059946163424543</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4251276064520396</v>
+        <v>0.4018430764813225</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>20.20815822328542</v>
+        <v>19.86816835768558</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>13.41514683801436</v>
+        <v>13.70550228475423</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.09603578287194</v>
+        <v>12.10722097506213</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13.08032642397326</v>
+        <v>13.10379642653134</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.480177712342287</v>
+        <v>1.457712657922108</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8495646286035745</v>
+        <v>0.88629020522177</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8702470627794098</v>
+        <v>0.8392174898906908</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.036335550697381</v>
+        <v>0.9958760517199621</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>6.287081510226828</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.009209775358382</v>
+        <v>6.009209775358385</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6576799070518153</v>
@@ -849,7 +849,7 @@
         <v>0.3992819847505925</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4061494898960407</v>
+        <v>0.4061494898960409</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.204278282860664</v>
+        <v>5.680086457753973</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.526683521773478</v>
+        <v>6.942471329901247</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.395482760153776</v>
+        <v>2.055351238755611</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.503608668321974</v>
+        <v>2.359817683157381</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3420417008592976</v>
+        <v>0.3033024103735386</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3507985820879252</v>
+        <v>0.3763558884443463</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1241738013735555</v>
+        <v>0.1160711072464374</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1633893685638721</v>
+        <v>0.1395021931215108</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.81138293867495</v>
+        <v>14.97375119561077</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.98391699534304</v>
+        <v>15.91944360961403</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.71011675134467</v>
+        <v>10.20683708926652</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.69773203769418</v>
+        <v>9.470858154247642</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.053086952900869</v>
+        <v>1.087449039395318</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.110319260442632</v>
+        <v>1.100400871251782</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7857413417501931</v>
+        <v>0.7375192069203916</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7884346792975067</v>
+        <v>0.7468862090784933</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.30955136268301</v>
+        <v>8.287090902349805</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.937534962886643</v>
+        <v>6.339101377698056</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.488836271614936</v>
+        <v>4.706685488636274</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.719574674146507</v>
+        <v>2.386391383737909</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.504382158775064</v>
+        <v>0.5201513289886976</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3564723762138131</v>
+        <v>0.3604500374428981</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2469329398708794</v>
+        <v>0.2755610680045806</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.131679541922625</v>
+        <v>0.113892964401962</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>15.1923988396293</v>
+        <v>15.4309801777054</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.31357637555272</v>
+        <v>13.58165058050222</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.77421765988147</v>
+        <v>11.67862108475985</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.360917218230808</v>
+        <v>8.901008348382497</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.170125729552774</v>
+        <v>1.18951582153703</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.003490765692285</v>
+        <v>1.032188314689512</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8776218329149038</v>
+        <v>0.8757797946949898</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5673958934255464</v>
+        <v>0.5194229064540499</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>8.182353356095144</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.964137367832166</v>
+        <v>6.964137367832168</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8305829088277248</v>
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>10.9779696096485</v>
+        <v>11.08851145908401</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.01144149832334</v>
+        <v>8.267382033490589</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.152791713852592</v>
+        <v>6.222537492970808</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.119903582849525</v>
+        <v>5.155744872896756</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6584149523778395</v>
+        <v>0.6710372194042798</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4548578687550311</v>
+        <v>0.4703084343590953</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3780996856608178</v>
+        <v>0.375864563222876</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2758452755205357</v>
+        <v>0.2865073043861547</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.87898818551388</v>
+        <v>15.20256152123597</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.07900562218968</v>
+        <v>12.0332238058413</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.16616407073086</v>
+        <v>10.08648549481465</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.487459508352972</v>
+        <v>8.745911252242347</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.00731200802195</v>
+        <v>1.039254423009715</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7750026678722658</v>
+        <v>0.7717546664131014</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6984632607047653</v>
+        <v>0.6877108972765003</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5166099012558597</v>
+        <v>0.5403791715951901</v>
       </c>
     </row>
     <row r="19">
